--- a/T_Result.xlsx
+++ b/T_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA수업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2918C653-B981-4CFF-B560-8C57749A8E13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF882F2-BB73-4FD0-8D65-6E6851F23698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="1" xr2:uid="{EF7B2584-7A8D-405D-841F-C352994596DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="4" xr2:uid="{EF7B2584-7A8D-405D-841F-C352994596DE}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="386">
   <si>
     <t>Title</t>
   </si>
@@ -1216,6 +1216,14 @@
   </si>
   <si>
     <t>LG전자 27MR400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D4023-7A41-41F2-88CB-0D513619F386}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8656,9 +8664,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8668,87 +8678,96 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
